--- a/婚房布置物料表.xlsx
+++ b/婚房布置物料表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\杂文件\wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A116C8-CF45-45A3-9A75-39E8CE3C6438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3E5A6-0BAF-4E47-A382-03D38A961948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="291">
   <si>
     <t>布置地点</t>
   </si>
@@ -1190,6 +1190,10 @@
   </si>
   <si>
     <t>囍字规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1352,18 +1356,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,15 +1381,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5127,8 +5131,8 @@
   <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5144,48 +5148,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G2" s="1">
@@ -5196,11 +5200,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="1">
@@ -5211,29 +5215,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="1">
@@ -5242,7 +5246,7 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="1">
@@ -5253,13 +5257,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="1">
@@ -5268,20 +5272,20 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="1">
@@ -5290,36 +5294,36 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="16"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="1">
@@ -5328,7 +5332,7 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>146</v>
       </c>
       <c r="G9" s="1">
@@ -5339,11 +5343,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="1">
@@ -5358,11 +5362,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D11" s="1">
@@ -5371,7 +5375,7 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>156</v>
       </c>
       <c r="G11" s="1">
@@ -5382,13 +5386,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D12" s="1">
@@ -5400,9 +5404,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="1">
@@ -5411,7 +5415,7 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="1"/>
@@ -5420,9 +5424,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="16" t="s">
         <v>176</v>
       </c>
       <c r="D14" s="1">
@@ -5439,9 +5443,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="19" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="1">
@@ -5453,9 +5457,9 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D16" s="1">
@@ -5467,9 +5471,9 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D17" s="1">
@@ -5480,18 +5484,18 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>172</v>
       </c>
       <c r="G18" s="1"/>
@@ -5500,9 +5504,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="1">
@@ -5511,7 +5515,7 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>186</v>
       </c>
       <c r="G19" s="1"/>
@@ -5520,8 +5524,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
@@ -5533,8 +5537,8 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -5546,8 +5550,8 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
@@ -5559,9 +5563,9 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D23" s="1"/>
@@ -5570,9 +5574,9 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D24" s="1"/>
@@ -5581,11 +5585,11 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D25" s="1">
@@ -5594,7 +5598,7 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="1"/>
@@ -5603,11 +5607,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>204</v>
       </c>
       <c r="D26" s="1">
@@ -5623,11 +5627,11 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="1">
@@ -5641,9 +5645,9 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D28" s="1">
@@ -5657,11 +5661,11 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D29" s="1">
@@ -5679,13 +5683,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D30" s="1">
@@ -5694,7 +5698,7 @@
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="18" t="s">
         <v>213</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -5702,9 +5706,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="23" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="1">
@@ -5718,7 +5722,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
@@ -5731,7 +5735,7 @@
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="17" t="s">
         <v>153</v>
       </c>
       <c r="G32" s="1"/>
@@ -5740,11 +5744,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D33" s="1">
@@ -5753,22 +5757,22 @@
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="17" t="s">
         <v>222</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>238</v>
       </c>
       <c r="D34" s="1">
@@ -5785,9 +5789,9 @@
       </c>
     </row>
     <row r="35" spans="1:21" s="3" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="16" t="s">
         <v>229</v>
       </c>
       <c r="D35" s="1">
@@ -5796,7 +5800,7 @@
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="17" t="s">
         <v>230</v>
       </c>
       <c r="G35" s="1">
@@ -5808,11 +5812,11 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="1">
@@ -5829,11 +5833,11 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:21" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>235</v>
       </c>
       <c r="D37" s="1">
@@ -5847,7 +5851,7 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:21" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="3" t="s">
         <v>53</v>
       </c>
@@ -5869,11 +5873,11 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="23" t="s">
         <v>239</v>
       </c>
       <c r="D39" s="1">
@@ -5887,11 +5891,11 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>240</v>
       </c>
       <c r="D40" s="1">
@@ -5902,9 +5906,9 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="23" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="19" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5912,9 +5916,9 @@
       </c>
     </row>
     <row r="42" spans="1:21" s="3" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="20" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="16" t="s">
         <v>244</v>
       </c>
       <c r="D42" s="1">
@@ -5923,7 +5927,7 @@
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="17" t="s">
         <v>245</v>
       </c>
       <c r="G42" s="1">
@@ -5934,8 +5938,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
@@ -5950,8 +5954,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="3" customFormat="1" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="2" t="s">
         <v>249</v>
       </c>
@@ -5967,9 +5971,9 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:21" s="3" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="20" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D45" s="1">
@@ -5982,7 +5986,7 @@
         <v>37</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="20" t="s">
         <v>252</v>
       </c>
       <c r="U45" s="5" t="s">
@@ -5990,7 +5994,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="27"/>
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -6005,11 +6009,11 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="3" customFormat="1" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D47" s="1">
@@ -6025,11 +6029,11 @@
       </c>
     </row>
     <row r="48" spans="1:21" s="3" customFormat="1" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D48" s="1">
@@ -6043,9 +6047,9 @@
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="20" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="16" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="1">
@@ -6055,12 +6059,12 @@
         <v>23</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="3" t="s">
         <v>67</v>
       </c>
@@ -6079,11 +6083,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="27"/>
       <c r="B51" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="19" t="s">
         <v>239</v>
       </c>
       <c r="D51" s="1">
@@ -6097,13 +6101,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D52" s="1">
@@ -6117,7 +6121,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="3" t="s">
         <v>71</v>
       </c>
@@ -6136,7 +6140,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
@@ -6155,7 +6159,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
@@ -6174,7 +6178,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="27"/>
       <c r="B56" t="s">
         <v>43</v>
       </c>
@@ -6192,7 +6196,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="27"/>
       <c r="B57" t="s">
         <v>73</v>
       </c>
@@ -6204,11 +6208,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D58" s="1">
@@ -6225,7 +6229,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -6246,7 +6250,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="27"/>
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -6264,7 +6268,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="27"/>
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -6282,7 +6286,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="27"/>
       <c r="B62" t="s">
         <v>43</v>
       </c>
@@ -6300,7 +6304,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="3" t="s">
         <v>53</v>
       </c>
@@ -6319,7 +6323,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="27"/>
       <c r="B64" t="s">
         <v>73</v>
       </c>
@@ -6337,11 +6341,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="16" t="s">
         <v>267</v>
       </c>
       <c r="D65" s="1">
@@ -6358,13 +6362,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D66" s="1">
@@ -6379,16 +6383,16 @@
       <c r="G66" s="1">
         <v>4.5</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D67" s="1">
@@ -6468,19 +6472,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A59:A65"/>
@@ -6490,6 +6481,19 @@
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -6517,8 +6521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF149D4-8A12-41C9-837F-19DE6D7551D6}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6533,43 +6538,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="3">
         <f>LOOKUP(1,0/($C2=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="str">
+      <c r="E2" s="18" t="str">
         <f>LOOKUP(1,0/($C2=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>副</v>
       </c>
@@ -6582,18 +6587,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="3">
         <f>LOOKUP(1,0/($C3=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="str">
+      <c r="E3" s="18" t="str">
         <f>LOOKUP(1,0/($C3=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>瓶</v>
       </c>
@@ -6606,16 +6611,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>LOOKUP(1,0/($C4=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>4cm*4cm</v>
       </c>
-      <c r="E4" s="22" t="str">
+      <c r="E4" s="18" t="str">
         <f>LOOKUP(1,0/($C4=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -6628,16 +6633,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>LOOKUP(1,0/($C5=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>26cm*21cm*15cm</v>
       </c>
-      <c r="E5" s="22" t="str">
+      <c r="E5" s="18" t="str">
         <f>LOOKUP(1,0/($C5=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -6650,92 +6655,92 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>LOOKUP(1,0/($C6=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E6" s="22" t="str">
+      <c r="E6" s="18" t="str">
         <f>LOOKUP(1,0/($C6=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F6" s="1">
         <f>LOOKUP(1,0/($C6=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G6" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>LOOKUP(1,0/($C7=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*30cm</v>
       </c>
-      <c r="E7" s="22" t="str">
+      <c r="E7" s="18" t="str">
         <f>LOOKUP(1,0/($C7=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F7" s="1">
         <f>LOOKUP(1,0/($C7=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>143</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>LOOKUP(1,0/($C8=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*30cm</v>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="18" t="str">
         <f>LOOKUP(1,0/($C8=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F8" s="1">
         <f>LOOKUP(1,0/($C8=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>LOOKUP(1,0/($C9=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>27cm*22cm</v>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="18" t="str">
         <f>LOOKUP(1,0/($C9=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -6748,18 +6753,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>LOOKUP(1,0/($C10=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E10" s="22" t="str">
+      <c r="E10" s="18" t="str">
         <f>LOOKUP(1,0/($C10=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -6772,18 +6777,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>LOOKUP(1,0/($C11=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>(9.5cm*24cm)*3m</v>
       </c>
-      <c r="E11" s="22" t="str">
+      <c r="E11" s="18" t="str">
         <f>LOOKUP(1,0/($C11=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>条</v>
       </c>
@@ -6796,20 +6801,20 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D12" s="3">
         <f>LOOKUP(1,0/($C12=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="18" t="str">
         <f>LOOKUP(1,0/($C12=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -6822,16 +6827,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>LOOKUP(1,0/($C13=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*200cm</v>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="18" t="str">
         <f>LOOKUP(1,0/($C13=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -6844,16 +6849,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="16" t="s">
         <v>176</v>
       </c>
       <c r="D14" s="3">
         <f>LOOKUP(1,0/($C14=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="18" t="str">
         <f>LOOKUP(1,0/($C14=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -6866,16 +6871,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="19" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="3">
         <f>LOOKUP(1,0/($C15=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="22" t="str">
+      <c r="E15" s="18" t="str">
         <f>LOOKUP(1,0/($C15=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>罐</v>
       </c>
@@ -6888,16 +6893,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D16" s="3">
         <f>LOOKUP(1,0/($C16=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="22" t="str">
+      <c r="E16" s="18" t="str">
         <f>LOOKUP(1,0/($C16=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>罐</v>
       </c>
@@ -6910,16 +6915,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D17" s="3">
         <f>LOOKUP(1,0/($C17=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="18" t="str">
         <f>LOOKUP(1,0/($C17=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>瓶</v>
       </c>
@@ -6932,44 +6937,44 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>285</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>LOOKUP(1,0/($C18=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>70cm</v>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="18" t="str">
         <f>LOOKUP(1,0/($C18=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F18" s="1">
         <f>LOOKUP(1,0/($C18=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>LOOKUP(1,0/($C19=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*160cm</v>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="18" t="str">
         <f>LOOKUP(1,0/($C19=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -6982,16 +6987,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>LOOKUP(1,0/($C20=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>22cm*34.5</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="18" t="str">
         <f>LOOKUP(1,0/($C20=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7004,8 +7009,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
@@ -7013,7 +7018,7 @@
         <f>LOOKUP(1,0/($C21=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <f>LOOKUP(1,0/($C21=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>0</v>
       </c>
@@ -7026,8 +7031,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
@@ -7035,7 +7040,7 @@
         <f>LOOKUP(1,0/($C22=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <f>LOOKUP(1,0/($C22=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>0</v>
       </c>
@@ -7048,16 +7053,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="16" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="3" t="e">
         <f>LOOKUP(1,0/($C23=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="22" t="e">
+      <c r="E23" s="18" t="e">
         <f>LOOKUP(1,0/($C23=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>#N/A</v>
       </c>
@@ -7070,16 +7075,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D24" s="3">
         <f>LOOKUP(1,0/($C24=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="18">
         <f>LOOKUP(1,0/($C24=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>0</v>
       </c>
@@ -7092,16 +7097,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D25" s="3">
         <f>LOOKUP(1,0/($C25=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="18" t="str">
         <f>LOOKUP(1,0/($C25=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>套</v>
       </c>
@@ -7114,18 +7119,18 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>LOOKUP(1,0/($C26=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>45cm*45cm</v>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="18" t="str">
         <f>LOOKUP(1,0/($C26=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7138,40 +7143,40 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>LOOKUP(1,0/($C27=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>70cm</v>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="18" t="str">
         <f>LOOKUP(1,0/($C27=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F27" s="1">
         <f>LOOKUP(1,0/($C27=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="16" t="s">
         <v>204</v>
       </c>
       <c r="D28" s="3">
         <f>LOOKUP(1,0/($C28=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="18" t="str">
         <f>LOOKUP(1,0/($C28=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>套</v>
       </c>
@@ -7184,18 +7189,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="3">
         <f>LOOKUP(1,0/($C29=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="18" t="str">
         <f>LOOKUP(1,0/($C29=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7208,16 +7213,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D30" s="3">
         <f>LOOKUP(1,0/($C30=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="18">
         <f>LOOKUP(1,0/($C30=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>0</v>
       </c>
@@ -7230,44 +7235,44 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>LOOKUP(1,0/($C31=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v xml:space="preserve">1m*1m </v>
       </c>
-      <c r="E31" s="22" t="str">
+      <c r="E31" s="18" t="str">
         <f>LOOKUP(1,0/($C31=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F31" s="1">
         <f>LOOKUP(1,0/($C31=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D32" s="3">
         <f>LOOKUP(1,0/($C32=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="22" t="str">
+      <c r="E32" s="18" t="str">
         <f>LOOKUP(1,0/($C32=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>对</v>
       </c>
@@ -7280,29 +7285,29 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>LOOKUP(1,0/($C33=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*30cm</v>
       </c>
-      <c r="E33" s="22" t="str">
+      <c r="E33" s="18" t="str">
         <f>LOOKUP(1,0/($C33=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F33" s="1">
         <f>LOOKUP(1,0/($C33=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -7313,7 +7318,7 @@
         <f>LOOKUP(1,0/($C34=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E34" s="22" t="str">
+      <c r="E34" s="18" t="str">
         <f>LOOKUP(1,0/($C34=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7326,44 +7331,44 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D35" s="3" t="str">
         <f>LOOKUP(1,0/($C35=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*41cm</v>
       </c>
-      <c r="E35" s="22" t="str">
+      <c r="E35" s="18" t="str">
         <f>LOOKUP(1,0/($C35=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>对</v>
       </c>
       <c r="F35" s="1">
         <f>LOOKUP(1,0/($C35=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>238</v>
       </c>
       <c r="D36" s="3">
         <f>LOOKUP(1,0/($C36=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="22" t="str">
+      <c r="E36" s="18" t="str">
         <f>LOOKUP(1,0/($C36=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>副</v>
       </c>
@@ -7376,16 +7381,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="16" t="s">
         <v>229</v>
       </c>
       <c r="D37" s="3" t="str">
         <f>LOOKUP(1,0/($C37=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>85cm*35cm</v>
       </c>
-      <c r="E37" s="22" t="str">
+      <c r="E37" s="18" t="str">
         <f>LOOKUP(1,0/($C37=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7398,55 +7403,55 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D38" s="3" t="str">
         <f>LOOKUP(1,0/($C38=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E38" s="22" t="str">
+      <c r="E38" s="18" t="str">
         <f>LOOKUP(1,0/($C38=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F38" s="1">
         <f>LOOKUP(1,0/($C38=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>235</v>
       </c>
       <c r="D39" s="3">
         <f>LOOKUP(1,0/($C39=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="22" t="str">
+      <c r="E39" s="18" t="str">
         <f>LOOKUP(1,0/($C39=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>米</v>
       </c>
       <c r="F39" s="1">
         <f>LOOKUP(1,0/($C39=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>14.17</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -7457,7 +7462,7 @@
         <f>LOOKUP(1,0/($C40=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E40" s="22" t="str">
+      <c r="E40" s="18" t="str">
         <f>LOOKUP(1,0/($C40=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7470,42 +7475,42 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="27"/>
       <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="23" t="s">
         <v>239</v>
       </c>
       <c r="D41" s="3" t="str">
         <f>LOOKUP(1,0/($C41=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E41" s="22" t="str">
+      <c r="E41" s="18" t="str">
         <f>LOOKUP(1,0/($C41=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F41" s="1">
         <f>LOOKUP(1,0/($C41=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="19" t="s">
         <v>240</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>LOOKUP(1,0/($C42=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>200cm*220cm</v>
       </c>
-      <c r="E42" s="22" t="str">
+      <c r="E42" s="18" t="str">
         <f>LOOKUP(1,0/($C42=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>套</v>
       </c>
@@ -7518,16 +7523,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19" t="s">
         <v>243</v>
       </c>
       <c r="D43" s="3" t="e">
         <f>LOOKUP(1,0/($C43=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>#N/A</v>
       </c>
-      <c r="E43" s="22" t="e">
+      <c r="E43" s="18" t="e">
         <f>LOOKUP(1,0/($C43=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>#N/A</v>
       </c>
@@ -7540,16 +7545,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="16" t="s">
         <v>282</v>
       </c>
       <c r="D44" s="3" t="str">
         <f>LOOKUP(1,0/($C44=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>26.5cm*26.5cm*8cm</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="18">
         <f>LOOKUP(1,0/($C44=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>0</v>
       </c>
@@ -7562,30 +7567,30 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="23" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D45" s="3" t="str">
         <f>LOOKUP(1,0/($C45=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>50cm*50cm</v>
       </c>
-      <c r="E45" s="22" t="str">
+      <c r="E45" s="18" t="str">
         <f>LOOKUP(1,0/($C45=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F45" s="1">
         <f>LOOKUP(1,0/($C45=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="2" t="s">
         <v>249</v>
       </c>
@@ -7593,101 +7598,101 @@
         <f>LOOKUP(1,0/($C46=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>45cm*45cm</v>
       </c>
-      <c r="E46" s="22" t="str">
+      <c r="E46" s="18" t="str">
         <f>LOOKUP(1,0/($C46=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F46" s="1">
         <f>LOOKUP(1,0/($C46=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="20" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D47" s="3" t="str">
         <f>LOOKUP(1,0/($C47=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>45cm*45cm</v>
       </c>
-      <c r="E47" s="22" t="str">
+      <c r="E47" s="18" t="str">
         <f>LOOKUP(1,0/($C47=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F47" s="1">
         <f>LOOKUP(1,0/($C47=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="27"/>
       <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D48" s="3" t="str">
         <f>LOOKUP(1,0/($C48=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>70cm</v>
       </c>
-      <c r="E48" s="22" t="str">
+      <c r="E48" s="18" t="str">
         <f>LOOKUP(1,0/($C48=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F48" s="1">
         <f>LOOKUP(1,0/($C48=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G48" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D49" s="3">
         <f>LOOKUP(1,0/($C49=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="22" t="str">
+      <c r="E49" s="18" t="str">
         <f>LOOKUP(1,0/($C49=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>套</v>
       </c>
       <c r="F49" s="1">
         <f>LOOKUP(1,0/($C49=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D50" s="3">
         <f>LOOKUP(1,0/($C50=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="22" t="str">
+      <c r="E50" s="18" t="str">
         <f>LOOKUP(1,0/($C50=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -7700,16 +7705,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="20" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="16" t="s">
         <v>262</v>
       </c>
       <c r="D51" s="3">
         <f>LOOKUP(1,0/($C51=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="22" t="str">
+      <c r="E51" s="18" t="str">
         <f>LOOKUP(1,0/($C51=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -7722,7 +7727,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="3" t="s">
         <v>67</v>
       </c>
@@ -7733,7 +7738,7 @@
         <f>LOOKUP(1,0/($C52=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E52" s="22" t="str">
+      <c r="E52" s="18" t="str">
         <f>LOOKUP(1,0/($C52=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7746,57 +7751,57 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="27"/>
       <c r="B53" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="19" t="s">
         <v>239</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>LOOKUP(1,0/($C53=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E53" s="22" t="str">
+      <c r="E53" s="18" t="str">
         <f>LOOKUP(1,0/($C53=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F53" s="1">
         <f>LOOKUP(1,0/($C53=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D54" s="3" t="str">
         <f>LOOKUP(1,0/($C54=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E54" s="22" t="str">
+      <c r="E54" s="18" t="str">
         <f>LOOKUP(1,0/($C54=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F54" s="1">
         <f>LOOKUP(1,0/($C54=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G54" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="3" t="s">
         <v>71</v>
       </c>
@@ -7807,7 +7812,7 @@
         <f>LOOKUP(1,0/($C55=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E55" s="22" t="str">
+      <c r="E55" s="18" t="str">
         <f>LOOKUP(1,0/($C55=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7820,7 +7825,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="3" t="s">
         <v>72</v>
       </c>
@@ -7831,20 +7836,20 @@
         <f>LOOKUP(1,0/($C56=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E56" s="22" t="str">
+      <c r="E56" s="18" t="str">
         <f>LOOKUP(1,0/($C56=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F56" s="1">
         <f>LOOKUP(1,0/($C56=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
@@ -7855,7 +7860,7 @@
         <f>LOOKUP(1,0/($C57=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E57" s="22" t="str">
+      <c r="E57" s="18" t="str">
         <f>LOOKUP(1,0/($C57=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7868,7 +7873,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="27"/>
       <c r="B58" t="s">
         <v>43</v>
       </c>
@@ -7879,20 +7884,20 @@
         <f>LOOKUP(1,0/($C58=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*30cm</v>
       </c>
-      <c r="E58" s="22" t="str">
+      <c r="E58" s="18" t="str">
         <f>LOOKUP(1,0/($C58=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F58" s="1">
         <f>LOOKUP(1,0/($C58=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="27"/>
       <c r="B59" t="s">
         <v>73</v>
       </c>
@@ -7903,28 +7908,28 @@
         <f>LOOKUP(1,0/($C59=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>50cm*50cm</v>
       </c>
-      <c r="E59" s="22" t="str">
+      <c r="E59" s="18" t="str">
         <f>LOOKUP(1,0/($C59=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F59" s="1">
         <f>LOOKUP(1,0/($C59=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D60" s="3">
         <f>LOOKUP(1,0/($C60=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="22" t="str">
+      <c r="E60" s="18" t="str">
         <f>LOOKUP(1,0/($C60=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>副</v>
       </c>
@@ -7937,7 +7942,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -7950,7 +7955,7 @@
         <f>LOOKUP(1,0/($C61=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E61" s="22" t="str">
+      <c r="E61" s="18" t="str">
         <f>LOOKUP(1,0/($C61=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -7963,7 +7968,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="27"/>
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -7974,20 +7979,20 @@
         <f>LOOKUP(1,0/($C62=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E62" s="22" t="str">
+      <c r="E62" s="18" t="str">
         <f>LOOKUP(1,0/($C62=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F62" s="1">
         <f>LOOKUP(1,0/($C62=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G62" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="27"/>
       <c r="B63" t="s">
         <v>51</v>
       </c>
@@ -7998,20 +8003,20 @@
         <f>LOOKUP(1,0/($C63=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E63" s="22" t="str">
+      <c r="E63" s="18" t="str">
         <f>LOOKUP(1,0/($C63=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F63" s="1">
         <f>LOOKUP(1,0/($C63=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="G63" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="27"/>
       <c r="B64" t="s">
         <v>43</v>
       </c>
@@ -8022,20 +8027,20 @@
         <f>LOOKUP(1,0/($C64=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>30cm*30cm</v>
       </c>
-      <c r="E64" s="22" t="str">
+      <c r="E64" s="18" t="str">
         <f>LOOKUP(1,0/($C64=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F64" s="1">
         <f>LOOKUP(1,0/($C64=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="3" t="s">
         <v>53</v>
       </c>
@@ -8046,7 +8051,7 @@
         <f>LOOKUP(1,0/($C65=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>14cm*40cm</v>
       </c>
-      <c r="E65" s="22" t="str">
+      <c r="E65" s="18" t="str">
         <f>LOOKUP(1,0/($C65=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -8059,7 +8064,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="27"/>
       <c r="B66" t="s">
         <v>73</v>
       </c>
@@ -8070,31 +8075,31 @@
         <f>LOOKUP(1,0/($C66=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>50cm*50cm</v>
       </c>
-      <c r="E66" s="22" t="str">
+      <c r="E66" s="18" t="str">
         <f>LOOKUP(1,0/($C66=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F66" s="1">
         <f>LOOKUP(1,0/($C66=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="16" t="s">
         <v>267</v>
       </c>
       <c r="D67" s="3">
         <f>LOOKUP(1,0/($C67=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="22" t="str">
+      <c r="E67" s="18" t="str">
         <f>LOOKUP(1,0/($C67=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>副</v>
       </c>
@@ -8107,20 +8112,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D68" s="3">
         <f>LOOKUP(1,0/($C68=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="22" t="str">
+      <c r="E68" s="18" t="str">
         <f>LOOKUP(1,0/($C68=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -8133,24 +8138,24 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D69" s="3" t="str">
         <f>LOOKUP(1,0/($C69=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>20cm*20cm</v>
       </c>
-      <c r="E69" s="22" t="str">
+      <c r="E69" s="18" t="str">
         <f>LOOKUP(1,0/($C69=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
       <c r="F69" s="1">
         <f>LOOKUP(1,0/($C69=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -8168,7 +8173,7 @@
         <f>LOOKUP(1,0/($C70=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="22" t="str">
+      <c r="E70" s="18" t="str">
         <f>LOOKUP(1,0/($C70=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>把</v>
       </c>
@@ -8185,7 +8190,7 @@
         <f>LOOKUP(1,0/($C71=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="22" t="str">
+      <c r="E71" s="18" t="str">
         <f>LOOKUP(1,0/($C71=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>卷</v>
       </c>
@@ -8202,7 +8207,7 @@
         <f>LOOKUP(1,0/($C72=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="22" t="str">
+      <c r="E72" s="18" t="str">
         <f>LOOKUP(1,0/($C72=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -8219,7 +8224,7 @@
         <f>LOOKUP(1,0/($C73=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="22" t="str">
+      <c r="E73" s="18" t="str">
         <f>LOOKUP(1,0/($C73=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>盒</v>
       </c>
@@ -8236,7 +8241,7 @@
         <f>LOOKUP(1,0/($C74=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="22" t="str">
+      <c r="E74" s="18" t="str">
         <f>LOOKUP(1,0/($C74=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
@@ -8253,7 +8258,7 @@
         <f>LOOKUP(1,0/($C75=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="22" t="str">
+      <c r="E75" s="18" t="str">
         <f>LOOKUP(1,0/($C75=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>把</v>
       </c>
@@ -8270,7 +8275,7 @@
         <f>LOOKUP(1,0/($C76=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="22" t="str">
+      <c r="E76" s="18" t="str">
         <f>LOOKUP(1,0/($C76=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>张</v>
       </c>
@@ -8287,13 +8292,13 @@
         <f>LOOKUP(1,0/($C77=物料表!$A$2:$A$530),物料表!$B$2:$B$530)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="22" t="str">
+      <c r="E77" s="18" t="str">
         <f>LOOKUP(1,0/($C77=物料表!$A$2:$A$530),物料表!$C$2:$C$530)</f>
         <v>个</v>
       </c>
       <c r="F77" s="1">
         <f>LOOKUP(1,0/($C77=物料表!$A$2:$A$530),物料表!$D$2:$D$530)</f>
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="G77" s="1">
         <v>80</v>
@@ -8301,6 +8306,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A11"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A12:A18"/>
@@ -8316,9 +8324,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8331,7 +8336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8346,37 +8351,37 @@
     <col min="8" max="8" width="34.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="1">
@@ -8391,10 +8396,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="1">
@@ -8409,10 +8414,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="1">
@@ -8427,10 +8432,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="1">
@@ -8445,37 +8450,37 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>15.8</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>215</v>
       </c>
       <c r="G6" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A6,物料使用2!$G$2:$G$77)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="1">
@@ -8490,13 +8495,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="1">
@@ -8511,11 +8516,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="1">
@@ -8530,11 +8535,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D10" s="1">
@@ -8549,11 +8554,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D11" s="1">
@@ -8568,19 +8573,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="1">
         <v>9.69</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>287</v>
       </c>
       <c r="G12" s="1">
@@ -8592,13 +8597,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D13" s="1">
@@ -8613,11 +8618,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G14" s="1">
@@ -8627,11 +8632,11 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="1">
@@ -8641,13 +8646,13 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="1">
@@ -8662,13 +8667,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="1">
@@ -8683,11 +8688,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="1">
@@ -8702,13 +8707,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="1">
@@ -8723,13 +8728,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="1">
         <v>48</v>
       </c>
@@ -8742,13 +8747,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="1">
@@ -8763,14 +8768,17 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>121</v>
+      </c>
+      <c r="D22" s="1">
+        <v>17.899999999999999</v>
       </c>
       <c r="G22" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A22,物料使用2!$G$2:$G$77)</f>
@@ -8781,14 +8789,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>121</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17.899999999999999</v>
       </c>
       <c r="G23" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A23,物料使用2!$G$2:$G$77)</f>
@@ -8799,11 +8810,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
         <v>195</v>
       </c>
       <c r="D24" s="1">
@@ -8818,17 +8829,17 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="18">
         <v>16.899999999999999</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>214</v>
       </c>
       <c r="G25" s="1">
@@ -8840,14 +8851,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>233</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.6</v>
       </c>
       <c r="G26" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A26,物料使用2!$G$2:$G$77)</f>
@@ -8858,13 +8872,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="1">
@@ -8879,12 +8893,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
         <v>236</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14.17</v>
       </c>
       <c r="G28" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A28,物料使用2!$G$2:$G$77)</f>
@@ -8895,12 +8912,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18" t="s">
         <v>195</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.82</v>
       </c>
       <c r="G29" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A29,物料使用2!$G$2:$G$77)</f>
@@ -8911,13 +8931,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="18" t="s">
         <v>195</v>
       </c>
       <c r="G30" s="1">
@@ -8927,11 +8947,11 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
         <v>195</v>
       </c>
       <c r="G31" s="1">
@@ -8941,11 +8961,11 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="G32" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A32,物料使用2!$G$2:$G$77)</f>
         <v>1</v>
@@ -8953,17 +8973,20 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>9.98</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="1">
@@ -8975,17 +8998,20 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>18.98</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="1">
@@ -8994,17 +9020,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="1">
@@ -9016,52 +9042,52 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>11.98</v>
+      </c>
+      <c r="F36" s="27"/>
       <c r="G36" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A36,物料使用2!$G$2:$G$77)</f>
         <v>4</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="26" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14"/>
+        <v>18.98</v>
+      </c>
+      <c r="F37" s="27"/>
       <c r="G37" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A37,物料使用2!$G$2:$G$77)</f>
         <v>9</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="1">
@@ -9070,10 +9096,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>180</v>
       </c>
       <c r="G39" s="1">
@@ -9082,10 +9108,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>180</v>
       </c>
       <c r="G40" s="1">
@@ -9094,10 +9120,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>114</v>
       </c>
       <c r="G41" s="1">
@@ -9106,7 +9132,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="18" t="s">
         <v>190</v>
       </c>
       <c r="G42" s="1">
@@ -9115,7 +9141,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="18" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="1">
@@ -9124,7 +9150,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="18" t="s">
         <v>192</v>
       </c>
       <c r="G44" s="1">
@@ -9136,7 +9162,7 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>275</v>
       </c>
       <c r="G45" s="1">
@@ -9148,7 +9174,7 @@
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="18" t="s">
         <v>276</v>
       </c>
       <c r="G46" s="1">
@@ -9160,7 +9186,7 @@
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G47" s="1">
@@ -9172,7 +9198,7 @@
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>277</v>
       </c>
       <c r="G48" s="1">
@@ -9184,7 +9210,7 @@
       <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G49" s="1">
@@ -9196,7 +9222,7 @@
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="18" t="s">
         <v>275</v>
       </c>
       <c r="G50" s="1">
@@ -9208,7 +9234,7 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>131</v>
       </c>
       <c r="G51" s="1">
@@ -9217,14 +9243,17 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="18" t="s">
         <v>121</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.3</v>
       </c>
       <c r="G52" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A52,物料使用2!$G$2:$G$77)</f>
@@ -9235,8 +9264,14 @@
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="18" t="s">
         <v>121</v>
+      </c>
+      <c r="D53" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>80</v>
       </c>
       <c r="G53" s="1">
         <f>SUMIF(物料使用2!$C$2:$C$77,物料表!$A53,物料使用2!$G$2:$G$77)</f>
@@ -9287,10 +9322,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
